--- a/biology/Médecine/Miksa_Schächter/Miksa_Schächter.xlsx
+++ b/biology/Médecine/Miksa_Schächter/Miksa_Schächter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miksa_Sch%C3%A4chter</t>
+          <t>Miksa_Schächter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miksa Schächter, né à Vác, le 20 août 1859[1] et mort à Budapest le 30 avril 1917 est un médecin hongrois, fondateur du journal Gyógyászat. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miksa Schächter, né à Vác, le 20 août 1859 et mort à Budapest le 30 avril 1917 est un médecin hongrois, fondateur du journal Gyógyászat. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miksa_Sch%C3%A4chter</t>
+          <t>Miksa_Schächter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miksa (Maximilian) Schächter est le fils de Jakab Schächter et Mária Mohr. Il commence ses études dans sa ville natale puis, après le déménagement de ses parents, les poursuit à Budapest. Il obtient son diplôme en médecine en 1881 à l'université Semmelweis de Budapest, puis il est médecin assistant. 
 Schächter travaille à la clinique du Pr Kovács, durant trois ans. Il crée la revue médicale Gyógyászat. 
 Il est nommé privat-docent à l'université en 1889, puis obtient un poste de professeur extraordinaire en 1917. 
 À partir de 1902, il est chirurgien en chef au State Children's Shelter. 
 En tant qu'expert médico-légal, son activité littéraire est en partie liée à cela, car il travaille pour le conseil médico-légal. Il publie des articles dans Pester Lloyd et Pesti Napló. 
-Il épouse Emma Milch (Rivke) le 25 novembre 1884, à Bratislava[2].
+Il épouse Emma Milch (Rivke) le 25 novembre 1884, à Bratislava.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miksa_Sch%C3%A4chter</t>
+          <t>Miksa_Schächter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A sebek gyógyulása és a sebkezelés (Budapest, 1886)
 (de) Anleitung zur Wundbehandlung (1887) (ISBN 978-3743344129)
